--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H2">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I2">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J2">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.240260137292893</v>
+        <v>0.245966</v>
       </c>
       <c r="N2">
-        <v>0.240260137292893</v>
+        <v>0.491932</v>
       </c>
       <c r="O2">
-        <v>0.0348619559852589</v>
+        <v>0.03271899873118758</v>
       </c>
       <c r="P2">
-        <v>0.0348619559852589</v>
+        <v>0.02828474718162755</v>
       </c>
       <c r="Q2">
-        <v>22.44693993557255</v>
+        <v>22.980030156237</v>
       </c>
       <c r="R2">
-        <v>22.44693993557255</v>
+        <v>91.92012062494801</v>
       </c>
       <c r="S2">
-        <v>0.0115225473316348</v>
+        <v>0.01046503656759995</v>
       </c>
       <c r="T2">
-        <v>0.0115225473316348</v>
+        <v>0.007074187257337775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H3">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I3">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J3">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.48846936150038</v>
+        <v>1.514406333333333</v>
       </c>
       <c r="N3">
-        <v>1.48846936150038</v>
+        <v>4.543219</v>
       </c>
       <c r="O3">
-        <v>0.2159782057511028</v>
+        <v>0.2014500333332077</v>
       </c>
       <c r="P3">
-        <v>0.2159782057511028</v>
+        <v>0.261222690952747</v>
       </c>
       <c r="Q3">
-        <v>139.0641940440088</v>
+        <v>141.4874543993735</v>
       </c>
       <c r="R3">
-        <v>139.0641940440088</v>
+        <v>848.924726396241</v>
       </c>
       <c r="S3">
-        <v>0.07138495325451429</v>
+        <v>0.0644329608829606</v>
       </c>
       <c r="T3">
-        <v>0.07138495325451429</v>
+        <v>0.06533338338854733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H4">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I4">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J4">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.301064196241629</v>
+        <v>0.01693</v>
       </c>
       <c r="N4">
-        <v>0.301064196241629</v>
+        <v>0.05079</v>
       </c>
       <c r="O4">
-        <v>0.04368467810087897</v>
+        <v>0.002252069995523795</v>
       </c>
       <c r="P4">
-        <v>0.04368467810087897</v>
+        <v>0.002920286359405087</v>
       </c>
       <c r="Q4">
-        <v>28.12772025327224</v>
+        <v>1.581730444635</v>
       </c>
       <c r="R4">
-        <v>28.12772025327224</v>
+        <v>9.490382667810001</v>
       </c>
       <c r="S4">
-        <v>0.01443862677405276</v>
+        <v>0.0007203152837768924</v>
       </c>
       <c r="T4">
-        <v>0.01443862677405276</v>
+        <v>0.0007303813754750364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.42764966544679</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H5">
-        <v>93.42764966544679</v>
+        <v>186.855339</v>
       </c>
       <c r="I5">
-        <v>0.3305192438573158</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J5">
-        <v>0.3305192438573158</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.86196353724676</v>
+        <v>0.2247126666666667</v>
       </c>
       <c r="N5">
-        <v>4.86196353724676</v>
+        <v>0.674138</v>
       </c>
       <c r="O5">
-        <v>0.7054751601627592</v>
+        <v>0.02989182836468636</v>
       </c>
       <c r="P5">
-        <v>0.7054751601627592</v>
+        <v>0.03876109481702356</v>
       </c>
       <c r="Q5">
-        <v>454.2418260440668</v>
+        <v>20.994380753797</v>
       </c>
       <c r="R5">
-        <v>454.2418260440668</v>
+        <v>125.966284522782</v>
       </c>
       <c r="S5">
-        <v>0.2331731164971139</v>
+        <v>0.009560777806158429</v>
       </c>
       <c r="T5">
-        <v>0.2331731164971139</v>
+        <v>0.009694385503051585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.2905348664374</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H6">
-        <v>97.2905348664374</v>
+        <v>186.855339</v>
       </c>
       <c r="I6">
-        <v>0.3441849830716806</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J6">
-        <v>0.3441849830716806</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.240260137292893</v>
+        <v>0.6010243333333334</v>
       </c>
       <c r="N6">
-        <v>0.240260137292893</v>
+        <v>1.803073</v>
       </c>
       <c r="O6">
-        <v>0.0348619559852589</v>
+        <v>0.07994972638391565</v>
       </c>
       <c r="P6">
-        <v>0.0348619559852589</v>
+        <v>0.1036717756824495</v>
       </c>
       <c r="Q6">
-        <v>23.37503726430924</v>
+        <v>56.15230277612451</v>
       </c>
       <c r="R6">
-        <v>23.37503726430924</v>
+        <v>336.913816656747</v>
       </c>
       <c r="S6">
-        <v>0.01199896173063201</v>
+        <v>0.02557158967642159</v>
       </c>
       <c r="T6">
-        <v>0.01199896173063201</v>
+        <v>0.02592894148103761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.2905348664374</v>
+        <v>93.42766950000001</v>
       </c>
       <c r="H7">
-        <v>97.2905348664374</v>
+        <v>186.855339</v>
       </c>
       <c r="I7">
-        <v>0.3441849830716806</v>
+        <v>0.319845868560297</v>
       </c>
       <c r="J7">
-        <v>0.3441849830716806</v>
+        <v>0.2501060805639032</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.48846936150038</v>
+        <v>4.914489</v>
       </c>
       <c r="N7">
-        <v>1.48846936150038</v>
+        <v>9.828977999999999</v>
       </c>
       <c r="O7">
-        <v>0.2159782057511028</v>
+        <v>0.6537373431914789</v>
       </c>
       <c r="P7">
-        <v>0.2159782057511028</v>
+        <v>0.5651394050067472</v>
       </c>
       <c r="Q7">
-        <v>144.8139803126765</v>
+        <v>459.1492540533855</v>
       </c>
       <c r="R7">
-        <v>144.8139803126765</v>
+        <v>1836.597016213542</v>
       </c>
       <c r="S7">
-        <v>0.07433645509029527</v>
+        <v>0.2090951883433795</v>
       </c>
       <c r="T7">
-        <v>0.07433645509029527</v>
+        <v>0.1413448015584538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H8">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I8">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J8">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.301064196241629</v>
+        <v>0.245966</v>
       </c>
       <c r="N8">
-        <v>0.301064196241629</v>
+        <v>0.491932</v>
       </c>
       <c r="O8">
-        <v>0.04368467810087897</v>
+        <v>0.03271899873118758</v>
       </c>
       <c r="P8">
-        <v>0.04368467810087897</v>
+        <v>0.02828474718162755</v>
       </c>
       <c r="Q8">
-        <v>29.29069668148216</v>
+        <v>25.67219767560934</v>
       </c>
       <c r="R8">
-        <v>29.29069668148216</v>
+        <v>154.033186053656</v>
       </c>
       <c r="S8">
-        <v>0.01503561019264284</v>
+        <v>0.01169104155300636</v>
       </c>
       <c r="T8">
-        <v>0.01503561019264284</v>
+        <v>0.01185441875597548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.2905348664374</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H9">
-        <v>97.2905348664374</v>
+        <v>313.118858</v>
       </c>
       <c r="I9">
-        <v>0.3441849830716806</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J9">
-        <v>0.3441849830716806</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.86196353724676</v>
+        <v>1.514406333333333</v>
       </c>
       <c r="N9">
-        <v>4.86196353724676</v>
+        <v>4.543219</v>
       </c>
       <c r="O9">
-        <v>0.7054751601627592</v>
+        <v>0.2014500333332077</v>
       </c>
       <c r="P9">
-        <v>0.7054751601627592</v>
+        <v>0.261222690952747</v>
       </c>
       <c r="Q9">
-        <v>473.0230330398532</v>
+        <v>158.0630605471002</v>
       </c>
       <c r="R9">
-        <v>473.0230330398532</v>
+        <v>1422.567544923902</v>
       </c>
       <c r="S9">
-        <v>0.2428139560581104</v>
+        <v>0.07198144203319159</v>
       </c>
       <c r="T9">
-        <v>0.2428139560581104</v>
+        <v>0.1094810269023039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.231265986431065</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H10">
-        <v>0.231265986431065</v>
+        <v>313.118858</v>
       </c>
       <c r="I10">
-        <v>0.0008181502931822288</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J10">
-        <v>0.0008181502931822288</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.240260137292893</v>
+        <v>0.01693</v>
       </c>
       <c r="N10">
-        <v>0.240260137292893</v>
+        <v>0.05079</v>
       </c>
       <c r="O10">
-        <v>0.0348619559852589</v>
+        <v>0.002252069995523795</v>
       </c>
       <c r="P10">
-        <v>0.0348619559852589</v>
+        <v>0.002920286359405087</v>
       </c>
       <c r="Q10">
-        <v>0.05556399765110401</v>
+        <v>1.767034088646667</v>
       </c>
       <c r="R10">
-        <v>0.05556399765110401</v>
+        <v>15.90330679782</v>
       </c>
       <c r="S10">
-        <v>2.852231951024552E-05</v>
+        <v>0.0008047020055308364</v>
       </c>
       <c r="T10">
-        <v>2.852231951024552E-05</v>
+        <v>0.001223921047250422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.231265986431065</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H11">
-        <v>0.231265986431065</v>
+        <v>313.118858</v>
       </c>
       <c r="I11">
-        <v>0.0008181502931822288</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J11">
-        <v>0.0008181502931822288</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.48846936150038</v>
+        <v>0.2247126666666667</v>
       </c>
       <c r="N11">
-        <v>1.48846936150038</v>
+        <v>0.674138</v>
       </c>
       <c r="O11">
-        <v>0.2159782057511028</v>
+        <v>0.02989182836468636</v>
       </c>
       <c r="P11">
-        <v>0.2159782057511028</v>
+        <v>0.03876109481702356</v>
       </c>
       <c r="Q11">
-        <v>0.3442323351598028</v>
+        <v>23.45392452160045</v>
       </c>
       <c r="R11">
-        <v>0.3442323351598028</v>
+        <v>211.085320694404</v>
       </c>
       <c r="S11">
-        <v>0.0001767026323562365</v>
+        <v>0.01068084663525393</v>
       </c>
       <c r="T11">
-        <v>0.0001767026323562365</v>
+        <v>0.01624516020774375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.231265986431065</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H12">
-        <v>0.231265986431065</v>
+        <v>313.118858</v>
       </c>
       <c r="I12">
-        <v>0.0008181502931822288</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J12">
-        <v>0.0008181502931822288</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.301064196241629</v>
+        <v>0.6010243333333334</v>
       </c>
       <c r="N12">
-        <v>0.301064196241629</v>
+        <v>1.803073</v>
       </c>
       <c r="O12">
-        <v>0.04368467810087897</v>
+        <v>0.07994972638391565</v>
       </c>
       <c r="P12">
-        <v>0.04368467810087897</v>
+        <v>0.1036717756824495</v>
       </c>
       <c r="Q12">
-        <v>0.06962590832289606</v>
+        <v>62.7306842945149</v>
       </c>
       <c r="R12">
-        <v>0.06962590832289606</v>
+        <v>564.5761586506342</v>
       </c>
       <c r="S12">
-        <v>3.574063219580542E-05</v>
+        <v>0.02856736482021071</v>
       </c>
       <c r="T12">
-        <v>3.574063219580542E-05</v>
+        <v>0.04344987191236386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.231265986431065</v>
+        <v>104.3729526666667</v>
       </c>
       <c r="H13">
-        <v>0.231265986431065</v>
+        <v>313.118858</v>
       </c>
       <c r="I13">
-        <v>0.0008181502931822288</v>
+        <v>0.3573166052255298</v>
       </c>
       <c r="J13">
-        <v>0.0008181502931822288</v>
+        <v>0.4191099421838055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.86196353724676</v>
+        <v>4.914489</v>
       </c>
       <c r="N13">
-        <v>4.86196353724676</v>
+        <v>9.828977999999999</v>
       </c>
       <c r="O13">
-        <v>0.7054751601627592</v>
+        <v>0.6537373431914789</v>
       </c>
       <c r="P13">
-        <v>0.7054751601627592</v>
+        <v>0.5651394050067472</v>
       </c>
       <c r="Q13">
-        <v>1.124406793433242</v>
+        <v>512.939727777854</v>
       </c>
       <c r="R13">
-        <v>1.124406793433242</v>
+        <v>3077.638366667124</v>
       </c>
       <c r="S13">
-        <v>0.0005771847091199413</v>
+        <v>0.2335912081783363</v>
       </c>
       <c r="T13">
-        <v>0.0005771847091199413</v>
+        <v>0.2368555433581681</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>56.188885535294</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H14">
-        <v>56.188885535294</v>
+        <v>0.170755</v>
       </c>
       <c r="I14">
-        <v>0.1987795692903866</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J14">
-        <v>0.1987795692903866</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.240260137292893</v>
+        <v>0.245966</v>
       </c>
       <c r="N14">
-        <v>0.240260137292893</v>
+        <v>0.491932</v>
       </c>
       <c r="O14">
-        <v>0.0348619559852589</v>
+        <v>0.03271899873118758</v>
       </c>
       <c r="P14">
-        <v>0.0348619559852589</v>
+        <v>0.02828474718162755</v>
       </c>
       <c r="Q14">
-        <v>13.49994935304439</v>
+        <v>0.01399997477666667</v>
       </c>
       <c r="R14">
-        <v>13.49994935304439</v>
+        <v>0.08399984866</v>
       </c>
       <c r="S14">
-        <v>0.006929844595370177</v>
+        <v>6.375546376014187E-06</v>
       </c>
       <c r="T14">
-        <v>0.006929844595370177</v>
+        <v>6.464641853914122E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,421 +1346,1413 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>56.188885535294</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H15">
-        <v>56.188885535294</v>
+        <v>0.170755</v>
       </c>
       <c r="I15">
-        <v>0.1987795692903866</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J15">
-        <v>0.1987795692903866</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.48846936150038</v>
+        <v>1.514406333333333</v>
       </c>
       <c r="N15">
-        <v>1.48846936150038</v>
+        <v>4.543219</v>
       </c>
       <c r="O15">
-        <v>0.2159782057511028</v>
+        <v>0.2014500333332077</v>
       </c>
       <c r="P15">
-        <v>0.2159782057511028</v>
+        <v>0.261222690952747</v>
       </c>
       <c r="Q15">
-        <v>83.63543457613699</v>
+        <v>0.08619748448277777</v>
       </c>
       <c r="R15">
-        <v>83.63543457613699</v>
+        <v>0.7757773603449999</v>
       </c>
       <c r="S15">
-        <v>0.04293205471531471</v>
+        <v>3.925407499530937E-05</v>
       </c>
       <c r="T15">
-        <v>0.04293205471531471</v>
+        <v>5.970395034048986E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>56.188885535294</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H16">
-        <v>56.188885535294</v>
+        <v>0.170755</v>
       </c>
       <c r="I16">
-        <v>0.1987795692903866</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J16">
-        <v>0.1987795692903866</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.301064196241629</v>
+        <v>0.01693</v>
       </c>
       <c r="N16">
-        <v>0.301064196241629</v>
+        <v>0.05079</v>
       </c>
       <c r="O16">
-        <v>0.04368467810087897</v>
+        <v>0.002252069995523795</v>
       </c>
       <c r="P16">
-        <v>0.04368467810087897</v>
+        <v>0.002920286359405087</v>
       </c>
       <c r="Q16">
-        <v>16.91646166139618</v>
+        <v>0.0009636273833333333</v>
       </c>
       <c r="R16">
-        <v>16.91646166139618</v>
+        <v>0.00867264645</v>
       </c>
       <c r="S16">
-        <v>0.008683621497481904</v>
+        <v>4.388330100335827E-07</v>
       </c>
       <c r="T16">
-        <v>0.008683621497481904</v>
+        <v>6.674482647201203E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>56.188885535294</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H17">
-        <v>56.188885535294</v>
+        <v>0.170755</v>
       </c>
       <c r="I17">
-        <v>0.1987795692903866</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J17">
-        <v>0.1987795692903866</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>4.86196353724676</v>
+        <v>0.2247126666666667</v>
       </c>
       <c r="N17">
-        <v>4.86196353724676</v>
+        <v>0.674138</v>
       </c>
       <c r="O17">
-        <v>0.7054751601627592</v>
+        <v>0.02989182836468636</v>
       </c>
       <c r="P17">
-        <v>0.7054751601627592</v>
+        <v>0.03876109481702356</v>
       </c>
       <c r="Q17">
-        <v>273.1883126711313</v>
+        <v>0.01279027046555556</v>
       </c>
       <c r="R17">
-        <v>273.1883126711313</v>
+        <v>0.11511243419</v>
       </c>
       <c r="S17">
-        <v>0.1402340484822198</v>
+        <v>5.824650673715679E-06</v>
       </c>
       <c r="T17">
-        <v>0.1402340484822198</v>
+        <v>8.859071436934287E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>35.5309832123493</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H18">
-        <v>35.5309832123493</v>
+        <v>0.170755</v>
       </c>
       <c r="I18">
-        <v>0.125698053487435</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J18">
-        <v>0.125698053487435</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.240260137292893</v>
+        <v>0.6010243333333334</v>
       </c>
       <c r="N18">
-        <v>0.240260137292893</v>
+        <v>1.803073</v>
       </c>
       <c r="O18">
-        <v>0.0348619559852589</v>
+        <v>0.07994972638391565</v>
       </c>
       <c r="P18">
-        <v>0.0348619559852589</v>
+        <v>0.1036717756824495</v>
       </c>
       <c r="Q18">
-        <v>8.536678904750518</v>
+        <v>0.03420930334611111</v>
       </c>
       <c r="R18">
-        <v>8.536678904750518</v>
+        <v>0.307883730115</v>
       </c>
       <c r="S18">
-        <v>0.004382080008111678</v>
+        <v>1.557881378027726E-05</v>
       </c>
       <c r="T18">
-        <v>0.004382080008111678</v>
+        <v>2.369478135486713E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>35.5309832123493</v>
+        <v>0.05691833333333333</v>
       </c>
       <c r="H19">
-        <v>35.5309832123493</v>
+        <v>0.170755</v>
       </c>
       <c r="I19">
-        <v>0.125698053487435</v>
+        <v>0.00019485762472117</v>
       </c>
       <c r="J19">
-        <v>0.125698053487435</v>
+        <v>0.0002285557587770574</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.48846936150038</v>
+        <v>4.914489</v>
       </c>
       <c r="N19">
-        <v>1.48846936150038</v>
+        <v>9.828977999999999</v>
       </c>
       <c r="O19">
-        <v>0.2159782057511028</v>
+        <v>0.6537373431914789</v>
       </c>
       <c r="P19">
-        <v>0.2159782057511028</v>
+        <v>0.5651394050067472</v>
       </c>
       <c r="Q19">
-        <v>52.88677989556628</v>
+        <v>0.279724523065</v>
       </c>
       <c r="R19">
-        <v>52.88677989556628</v>
+        <v>1.67834713839</v>
       </c>
       <c r="S19">
-        <v>0.02714804005862237</v>
+        <v>0.0001273857058858199</v>
       </c>
       <c r="T19">
-        <v>0.02714804005862237</v>
+        <v>0.0001291658655261319</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.5309832123493</v>
+        <v>0.2678446666666667</v>
       </c>
       <c r="H20">
-        <v>35.5309832123493</v>
+        <v>0.803534</v>
       </c>
       <c r="I20">
-        <v>0.125698053487435</v>
+        <v>0.0009169554427261318</v>
       </c>
       <c r="J20">
-        <v>0.125698053487435</v>
+        <v>0.001075531159106112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.301064196241629</v>
+        <v>0.245966</v>
       </c>
       <c r="N20">
-        <v>0.301064196241629</v>
+        <v>0.491932</v>
       </c>
       <c r="O20">
-        <v>0.04368467810087897</v>
+        <v>0.03271899873118758</v>
       </c>
       <c r="P20">
-        <v>0.04368467810087897</v>
+        <v>0.02828474718162755</v>
       </c>
       <c r="Q20">
-        <v>10.69710690250075</v>
+        <v>0.06588068128133334</v>
       </c>
       <c r="R20">
-        <v>10.69710690250075</v>
+        <v>0.395284087688</v>
       </c>
       <c r="S20">
-        <v>0.005491079004505666</v>
+        <v>3.000186396711186E-05</v>
       </c>
       <c r="T20">
-        <v>0.005491079004505666</v>
+        <v>3.04211269212792E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2678446666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.803534</v>
+      </c>
+      <c r="I21">
+        <v>0.0009169554427261318</v>
+      </c>
+      <c r="J21">
+        <v>0.001075531159106112</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.514406333333333</v>
+      </c>
+      <c r="N21">
+        <v>4.543219</v>
+      </c>
+      <c r="O21">
+        <v>0.2014500333332077</v>
+      </c>
+      <c r="P21">
+        <v>0.261222690952747</v>
+      </c>
+      <c r="Q21">
+        <v>0.4056256595495555</v>
+      </c>
+      <c r="R21">
+        <v>3.650630935945999</v>
+      </c>
+      <c r="S21">
+        <v>0.0001847207045022455</v>
+      </c>
+      <c r="T21">
+        <v>0.0002809531435852255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2678446666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.803534</v>
+      </c>
+      <c r="I22">
+        <v>0.0009169554427261318</v>
+      </c>
+      <c r="J22">
+        <v>0.001075531159106112</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01693</v>
+      </c>
+      <c r="N22">
+        <v>0.05079</v>
+      </c>
+      <c r="O22">
+        <v>0.002252069995523795</v>
+      </c>
+      <c r="P22">
+        <v>0.002920286359405087</v>
+      </c>
+      <c r="Q22">
+        <v>0.004534610206666667</v>
+      </c>
+      <c r="R22">
+        <v>0.04081149186</v>
+      </c>
+      <c r="S22">
+        <v>2.065047839795759E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.14085897305272E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2678446666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.803534</v>
+      </c>
+      <c r="I23">
+        <v>0.0009169554427261318</v>
+      </c>
+      <c r="J23">
+        <v>0.001075531159106112</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2247126666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.674138</v>
+      </c>
+      <c r="O23">
+        <v>0.02989182836468636</v>
+      </c>
+      <c r="P23">
+        <v>0.03876109481702356</v>
+      </c>
+      <c r="Q23">
+        <v>0.06018808929911111</v>
+      </c>
+      <c r="R23">
+        <v>0.541692803692</v>
+      </c>
+      <c r="S23">
+        <v>2.740947471203452E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.168876523677524E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2678446666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.803534</v>
+      </c>
+      <c r="I24">
+        <v>0.0009169554427261318</v>
+      </c>
+      <c r="J24">
+        <v>0.001075531159106112</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6010243333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.803073</v>
+      </c>
+      <c r="O24">
+        <v>0.07994972638391565</v>
+      </c>
+      <c r="P24">
+        <v>0.1036717756824495</v>
+      </c>
+      <c r="Q24">
+        <v>0.1609811622202222</v>
+      </c>
+      <c r="R24">
+        <v>1.448830459982</v>
+      </c>
+      <c r="S24">
+        <v>7.331033675219647E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001115022250663337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2678446666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.803534</v>
+      </c>
+      <c r="I25">
+        <v>0.0009169554427261318</v>
+      </c>
+      <c r="J25">
+        <v>0.001075531159106112</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.914489</v>
+      </c>
+      <c r="N25">
+        <v>9.828977999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.6537373431914789</v>
+      </c>
+      <c r="P25">
+        <v>0.5651394050067472</v>
+      </c>
+      <c r="Q25">
+        <v>1.316319668042</v>
+      </c>
+      <c r="R25">
+        <v>7.897918008251999</v>
+      </c>
+      <c r="S25">
+        <v>0.0005994480149527477</v>
+      </c>
+      <c r="T25">
+        <v>0.000607825039323445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="H21">
-        <v>35.5309832123493</v>
-      </c>
-      <c r="I21">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="J21">
-        <v>0.125698053487435</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.86196353724676</v>
-      </c>
-      <c r="N21">
-        <v>4.86196353724676</v>
-      </c>
-      <c r="O21">
-        <v>0.7054751601627592</v>
-      </c>
-      <c r="P21">
-        <v>0.7054751601627592</v>
-      </c>
-      <c r="Q21">
-        <v>172.750344820969</v>
-      </c>
-      <c r="R21">
-        <v>172.750344820969</v>
-      </c>
-      <c r="S21">
-        <v>0.0886768544161953</v>
-      </c>
-      <c r="T21">
-        <v>0.0886768544161953</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H26">
+        <v>174.606914</v>
+      </c>
+      <c r="I26">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J26">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.245966</v>
+      </c>
+      <c r="N26">
+        <v>0.491932</v>
+      </c>
+      <c r="O26">
+        <v>0.03271899873118758</v>
+      </c>
+      <c r="P26">
+        <v>0.02828474718162755</v>
+      </c>
+      <c r="Q26">
+        <v>14.31578806964134</v>
+      </c>
+      <c r="R26">
+        <v>85.89472841784801</v>
+      </c>
+      <c r="S26">
+        <v>0.00651936679909649</v>
+      </c>
+      <c r="T26">
+        <v>0.006610472104636373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H27">
+        <v>174.606914</v>
+      </c>
+      <c r="I27">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J27">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.514406333333333</v>
+      </c>
+      <c r="N27">
+        <v>4.543219</v>
+      </c>
+      <c r="O27">
+        <v>0.2014500333332077</v>
+      </c>
+      <c r="P27">
+        <v>0.261222690952747</v>
+      </c>
+      <c r="Q27">
+        <v>88.14193880179623</v>
+      </c>
+      <c r="R27">
+        <v>793.277449216166</v>
+      </c>
+      <c r="S27">
+        <v>0.04013957363975015</v>
+      </c>
+      <c r="T27">
+        <v>0.06105075999275093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H28">
+        <v>174.606914</v>
+      </c>
+      <c r="I28">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J28">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01693</v>
+      </c>
+      <c r="N28">
+        <v>0.05079</v>
+      </c>
+      <c r="O28">
+        <v>0.002252069995523795</v>
+      </c>
+      <c r="P28">
+        <v>0.002920286359405087</v>
+      </c>
+      <c r="Q28">
+        <v>0.9853650180066668</v>
+      </c>
+      <c r="R28">
+        <v>8.868285162060001</v>
+      </c>
+      <c r="S28">
+        <v>0.0004487322634376441</v>
+      </c>
+      <c r="T28">
+        <v>0.0006825046514446739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H29">
+        <v>174.606914</v>
+      </c>
+      <c r="I29">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J29">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2247126666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.674138</v>
+      </c>
+      <c r="O29">
+        <v>0.02989182836468636</v>
+      </c>
+      <c r="P29">
+        <v>0.03876109481702356</v>
+      </c>
+      <c r="Q29">
+        <v>13.07879508779244</v>
+      </c>
+      <c r="R29">
+        <v>117.709155790132</v>
+      </c>
+      <c r="S29">
+        <v>0.005956043918277741</v>
+      </c>
+      <c r="T29">
+        <v>0.009058915548643623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H30">
+        <v>174.606914</v>
+      </c>
+      <c r="I30">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J30">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6010243333333334</v>
+      </c>
+      <c r="N30">
+        <v>1.803073</v>
+      </c>
+      <c r="O30">
+        <v>0.07994972638391565</v>
+      </c>
+      <c r="P30">
+        <v>0.1036717756824495</v>
+      </c>
+      <c r="Q30">
+        <v>34.98100136074689</v>
+      </c>
+      <c r="R30">
+        <v>314.8290122467221</v>
+      </c>
+      <c r="S30">
+        <v>0.01593024273347713</v>
+      </c>
+      <c r="T30">
+        <v>0.02422929138401856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>58.20230466666667</v>
+      </c>
+      <c r="H31">
+        <v>174.606914</v>
+      </c>
+      <c r="I31">
+        <v>0.1992532489352207</v>
+      </c>
+      <c r="J31">
+        <v>0.2337115499809108</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.914489</v>
+      </c>
+      <c r="N31">
+        <v>9.828977999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.6537373431914789</v>
+      </c>
+      <c r="P31">
+        <v>0.5651394050067472</v>
+      </c>
+      <c r="Q31">
+        <v>286.034586058982</v>
+      </c>
+      <c r="R31">
+        <v>1716.207516353892</v>
+      </c>
+      <c r="S31">
+        <v>0.1302592895811815</v>
+      </c>
+      <c r="T31">
+        <v>0.1320796062994166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>35.7744715</v>
+      </c>
+      <c r="H32">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J32">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.245966</v>
+      </c>
+      <c r="N32">
+        <v>0.491932</v>
+      </c>
+      <c r="O32">
+        <v>0.03271899873118758</v>
+      </c>
+      <c r="P32">
+        <v>0.02828474718162755</v>
+      </c>
+      <c r="Q32">
+        <v>8.799303656969</v>
+      </c>
+      <c r="R32">
+        <v>35.197214627876</v>
+      </c>
+      <c r="S32">
+        <v>0.004007176401141657</v>
+      </c>
+      <c r="T32">
+        <v>0.002708783294902731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>35.7744715</v>
+      </c>
+      <c r="H33">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J33">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.514406333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.543219</v>
+      </c>
+      <c r="O33">
+        <v>0.2014500333332077</v>
+      </c>
+      <c r="P33">
+        <v>0.261222690952747</v>
+      </c>
+      <c r="Q33">
+        <v>54.17708621125283</v>
+      </c>
+      <c r="R33">
+        <v>325.062517267517</v>
+      </c>
+      <c r="S33">
+        <v>0.02467208199780782</v>
+      </c>
+      <c r="T33">
+        <v>0.02501686357521911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>35.7744715</v>
+      </c>
+      <c r="H34">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J34">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01693</v>
+      </c>
+      <c r="N34">
+        <v>0.05079</v>
+      </c>
+      <c r="O34">
+        <v>0.002252069995523795</v>
+      </c>
+      <c r="P34">
+        <v>0.002920286359405087</v>
+      </c>
+      <c r="Q34">
+        <v>0.605661802495</v>
+      </c>
+      <c r="R34">
+        <v>3.63397081497</v>
+      </c>
+      <c r="S34">
+        <v>0.0002758165619285928</v>
+      </c>
+      <c r="T34">
+        <v>0.0002796709779971819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>35.7744715</v>
+      </c>
+      <c r="H35">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J35">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.2247126666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.674138</v>
+      </c>
+      <c r="O35">
+        <v>0.02989182836468636</v>
+      </c>
+      <c r="P35">
+        <v>0.03876109481702356</v>
+      </c>
+      <c r="Q35">
+        <v>8.038976889355666</v>
+      </c>
+      <c r="R35">
+        <v>48.233861336134</v>
+      </c>
+      <c r="S35">
+        <v>0.003660925879610507</v>
+      </c>
+      <c r="T35">
+        <v>0.003712085720910892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35.7744715</v>
+      </c>
+      <c r="H36">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J36">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6010243333333334</v>
+      </c>
+      <c r="N36">
+        <v>1.803073</v>
+      </c>
+      <c r="O36">
+        <v>0.07994972638391565</v>
+      </c>
+      <c r="P36">
+        <v>0.1036717756824495</v>
+      </c>
+      <c r="Q36">
+        <v>21.50132788363983</v>
+      </c>
+      <c r="R36">
+        <v>129.007967301839</v>
+      </c>
+      <c r="S36">
+        <v>0.009791640003273745</v>
+      </c>
+      <c r="T36">
+        <v>0.009928473898608245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>35.7744715</v>
+      </c>
+      <c r="H37">
+        <v>71.54894299999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1224724642115052</v>
+      </c>
+      <c r="J37">
+        <v>0.09576834035349729</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.914489</v>
+      </c>
+      <c r="N37">
+        <v>9.828977999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.6537373431914789</v>
+      </c>
+      <c r="P37">
+        <v>0.5651394050067472</v>
+      </c>
+      <c r="Q37">
+        <v>175.8132466675635</v>
+      </c>
+      <c r="R37">
+        <v>703.2529866702539</v>
+      </c>
+      <c r="S37">
+        <v>0.08006482336774291</v>
+      </c>
+      <c r="T37">
+        <v>0.05412246288585912</v>
       </c>
     </row>
   </sheetData>
